--- a/신제품 대응 유사제품/Readme.xlsx
+++ b/신제품 대응 유사제품/Readme.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44B58A0-F3EF-4179-8531-1625BE2FB1B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="904" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="904"/>
   </bookViews>
   <sheets>
-    <sheet name="시나리오 1. 생산량 예측 (단순 선형)" sheetId="1" r:id="rId1"/>
-    <sheet name="시나리오 1.1. 생산량 예측 (Auto, Neural)" sheetId="8" r:id="rId2"/>
-    <sheet name="시나리오 2. 유사제품수요증감예측 " sheetId="10" r:id="rId3"/>
-    <sheet name="시나리오 2.1 유사제품월별수요증감예측 " sheetId="9" r:id="rId4"/>
-    <sheet name="시나리오 3. 월평균 예측 (선형분석)" sheetId="11" r:id="rId5"/>
-    <sheet name="시나리오 4.  유사도 분석 (거리계산)" sheetId="7" r:id="rId6"/>
+    <sheet name="목차" sheetId="12" r:id="rId1"/>
+    <sheet name="시나리오 1. 생산량 예측 (단순 선형)" sheetId="1" r:id="rId2"/>
+    <sheet name="시나리오 1.1. 생산량 예측 (Auto, Neural)" sheetId="8" r:id="rId3"/>
+    <sheet name="시나리오 2. 유사제품수요증감예측 " sheetId="10" r:id="rId4"/>
+    <sheet name="시나리오 2.1 유사제품월별수요증감예측 " sheetId="9" r:id="rId5"/>
+    <sheet name="시나리오 3. 월평균 예측 (선형분석)" sheetId="11" r:id="rId6"/>
+    <sheet name="시나리오 4.  유사도 분석 (거리계산)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="176">
   <si>
     <t>col_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,18 +683,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 생산량 예측 (단순 선형)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.1. 생산량 예측 (Auto_ML/Neural_net)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 생산량 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측대상(Y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산량(capa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측방법(알고리즘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선형회귀(OLS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산량(capa) 증감(절대값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤포레스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템별, 월간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템별, 월평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선형회귀(OLS)??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_B_distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_Feature(1~n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_Feature(1~n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_부가정보컬럼들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심(A:신규, ...) 제품특성(Feature)과 비교(B) 제품특성(Feature)과의 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리(관심제품-비교제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -934,7 +1026,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -967,26 +1059,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1019,23 +1094,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1211,27 +1269,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="7" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" customWidth="1"/>
-    <col min="4" max="4" width="25.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -1244,9 +1424,9 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>94</v>
@@ -1256,7 +1436,7 @@
       </c>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="10" t="s">
         <v>32</v>
@@ -1267,7 +1447,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
@@ -1275,7 +1455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="4" t="s">
@@ -1285,7 +1465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E6" s="4" t="s">
         <v>91</v>
       </c>
@@ -1295,7 +1475,7 @@
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>1</v>
       </c>
@@ -1314,7 +1494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>2</v>
       </c>
@@ -1325,17 +1505,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
         <v>92</v>
       </c>
@@ -1345,7 +1525,7 @@
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
         <v>49</v>
       </c>
@@ -1353,7 +1533,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
@@ -1361,7 +1541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E15" s="4" t="s">
         <v>86</v>
       </c>
@@ -1373,7 +1553,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>9</v>
       </c>
@@ -1384,7 +1564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>46</v>
       </c>
@@ -1395,7 +1575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E18" s="4" t="s">
         <v>85</v>
       </c>
@@ -1403,7 +1583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>9</v>
       </c>
@@ -1414,7 +1594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>46</v>
       </c>
@@ -1425,7 +1605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D21" s="6" t="s">
         <v>31</v>
       </c>
@@ -1438,7 +1618,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>9</v>
       </c>
@@ -1449,7 +1629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>12</v>
       </c>
@@ -1460,10 +1640,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>34</v>
       </c>
@@ -1472,7 +1652,7 @@
       </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C26" s="6" t="s">
         <v>26</v>
       </c>
@@ -1480,7 +1660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C27" s="14"/>
       <c r="E27" t="s">
         <v>38</v>
@@ -1492,7 +1672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C28" s="6" t="s">
         <v>7</v>
       </c>
@@ -1501,7 +1681,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C29" s="14"/>
       <c r="E29" s="4" t="s">
         <v>86</v>
@@ -1510,12 +1690,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="14"/>
       <c r="C31" s="16"/>
       <c r="D31"/>
@@ -1524,7 +1704,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
         <v>85</v>
       </c>
@@ -1532,17 +1712,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D35" s="6" t="s">
         <v>31</v>
       </c>
@@ -1553,17 +1733,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>35</v>
       </c>
@@ -1573,7 +1753,7 @@
       <c r="D38" s="11"/>
       <c r="E38" s="12"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C39" s="6" t="s">
         <v>26</v>
       </c>
@@ -1581,7 +1761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E40" s="4" t="s">
         <v>91</v>
       </c>
@@ -1591,32 +1771,32 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D44" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E45" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E46" s="4" t="s">
         <v>92</v>
       </c>
@@ -1626,7 +1806,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F47" t="s">
         <v>49</v>
       </c>
@@ -1634,7 +1814,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C48" s="6" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C49" s="14"/>
       <c r="E49" s="4" t="s">
         <v>86</v>
@@ -1651,12 +1831,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="14"/>
       <c r="C51" s="16"/>
       <c r="D51"/>
@@ -1665,7 +1845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E52" s="4" t="s">
         <v>85</v>
       </c>
@@ -1673,17 +1853,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D55" s="6" t="s">
         <v>31</v>
       </c>
@@ -1694,12 +1874,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F57" t="s">
         <v>12</v>
       </c>
@@ -1717,27 +1897,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>71</v>
       </c>
@@ -1756,9 +1933,9 @@
       <c r="J1" s="29"/>
       <c r="K1" s="29"/>
     </row>
-    <row r="2" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>95</v>
@@ -1775,7 +1952,7 @@
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="28" t="s">
         <v>70</v>
@@ -1792,7 +1969,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
     </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="26" t="s">
@@ -1807,7 +1984,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
@@ -1823,7 +2000,7 @@
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="E6" s="4" t="s">
@@ -1837,7 +2014,7 @@
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="E7" s="18"/>
@@ -1851,7 +2028,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="E8" s="18"/>
@@ -1867,7 +2044,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="E9" s="18"/>
@@ -1883,7 +2060,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -1893,7 +2070,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1907,7 +2084,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1921,7 +2098,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="22" t="s">
@@ -1933,7 +2110,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -1948,7 +2125,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="18"/>
@@ -1963,7 +2140,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1978,7 +2155,7 @@
       <c r="J16" s="21"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="F17" s="18" t="s">
@@ -1991,7 +2168,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="E18" s="21"/>
@@ -2006,7 +2183,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="F19" s="18" t="s">
@@ -2019,7 +2196,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>34</v>
       </c>
@@ -2028,7 +2205,7 @@
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="C21" s="6" t="s">
         <v>57</v>
@@ -2038,7 +2215,7 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="C22" s="14"/>
       <c r="E22" t="s">
@@ -2054,7 +2231,7 @@
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="C23" s="6" t="s">
         <v>7</v>
@@ -2064,7 +2241,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2079,7 +2256,7 @@
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="18"/>
@@ -2094,7 +2271,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2109,7 +2286,7 @@
       <c r="J26" s="21"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="F27" s="18" t="s">
@@ -2122,7 +2299,7 @@
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="E28" s="21"/>
@@ -2137,7 +2314,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="F29" s="18" t="s">
@@ -2150,7 +2327,7 @@
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>35</v>
       </c>
@@ -2160,7 +2337,7 @@
       <c r="D30" s="11"/>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="C31" s="6" t="s">
         <v>26</v>
@@ -2170,7 +2347,7 @@
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="E32" s="4" t="s">
         <v>91</v>
@@ -2181,41 +2358,41 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="E33" s="4"/>
       <c r="F33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="E34" s="4"/>
       <c r="F34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="E35" s="4"/>
       <c r="F35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="D36" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="E37" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="E38" s="18" t="s">
         <v>92</v>
@@ -2226,14 +2403,14 @@
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="E39" s="4"/>
       <c r="F39" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="C40" s="6" t="s">
         <v>48</v>
@@ -2243,7 +2420,7 @@
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -2258,7 +2435,7 @@
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
     </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="18"/>
@@ -2273,7 +2450,7 @@
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -2288,7 +2465,7 @@
       <c r="J43" s="21"/>
       <c r="K43" s="18"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="F44" s="18" t="s">
@@ -2301,7 +2478,7 @@
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="E45" s="21"/>
@@ -2316,7 +2493,7 @@
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="F46" s="18" t="s">
@@ -2340,28 +2517,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="35.69921875" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" customWidth="1"/>
-    <col min="4" max="4" width="25.19921875" customWidth="1"/>
-    <col min="5" max="5" width="39.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="39.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -2374,7 +2548,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>139</v>
       </c>
@@ -2387,7 +2561,7 @@
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="10" t="s">
         <v>32</v>
@@ -2398,7 +2572,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
@@ -2406,7 +2580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="4" t="s">
@@ -2416,7 +2590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E6" s="4" t="s">
         <v>117</v>
       </c>
@@ -2426,7 +2600,7 @@
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>0</v>
       </c>
@@ -2434,7 +2608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>1</v>
       </c>
@@ -2445,7 +2619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>2</v>
       </c>
@@ -2456,7 +2630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>98</v>
       </c>
@@ -2467,17 +2641,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13" s="4" t="s">
         <v>119</v>
       </c>
@@ -2486,7 +2660,7 @@
       </c>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
         <v>121</v>
       </c>
@@ -2494,7 +2668,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>123</v>
       </c>
@@ -2505,12 +2679,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E17" s="4" t="s">
         <v>126</v>
       </c>
@@ -2520,7 +2694,7 @@
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>128</v>
       </c>
@@ -2531,7 +2705,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>131</v>
       </c>
@@ -2539,7 +2713,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>133</v>
       </c>
@@ -2550,7 +2724,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
         <v>7</v>
       </c>
@@ -2558,7 +2732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E22" s="4" t="s">
         <v>136</v>
       </c>
@@ -2567,7 +2741,7 @@
       </c>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F23" s="36" t="s">
         <v>108</v>
       </c>
@@ -2575,7 +2749,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>110</v>
       </c>
@@ -2583,7 +2757,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E25" s="7"/>
       <c r="F25" t="s">
         <v>23</v>
@@ -2592,7 +2766,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>34</v>
       </c>
@@ -2601,7 +2775,7 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C27" s="6" t="s">
         <v>26</v>
       </c>
@@ -2609,7 +2783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C28" s="34"/>
       <c r="E28" t="s">
         <v>38</v>
@@ -2624,7 +2798,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C29" s="6" t="s">
         <v>7</v>
       </c>
@@ -2634,7 +2808,7 @@
       <c r="E29"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C30" s="34"/>
       <c r="E30" s="4" t="s">
         <v>136</v>
@@ -2644,7 +2818,7 @@
       </c>
       <c r="G30" s="36"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F31" s="36" t="s">
         <v>108</v>
       </c>
@@ -2652,7 +2826,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="34"/>
       <c r="C32" s="4"/>
       <c r="F32" t="s">
@@ -2662,7 +2836,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E33" s="7"/>
       <c r="F33" t="s">
         <v>23</v>
@@ -2671,7 +2845,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>35</v>
       </c>
@@ -2681,7 +2855,7 @@
       <c r="D34" s="11"/>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C35" s="6" t="s">
         <v>26</v>
       </c>
@@ -2689,7 +2863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E36" s="4" t="s">
         <v>117</v>
       </c>
@@ -2697,37 +2871,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D41" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E42" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E43" s="4" t="s">
         <v>119</v>
       </c>
@@ -2735,22 +2909,22 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E46" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="4" t="s">
         <v>126</v>
       </c>
@@ -2758,22 +2932,22 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F48" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F50" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C51" s="6" t="s">
         <v>7</v>
       </c>
@@ -2783,7 +2957,7 @@
       <c r="E51"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C52" s="34"/>
       <c r="E52" s="4" t="s">
         <v>136</v>
@@ -2793,7 +2967,7 @@
       </c>
       <c r="G52" s="36"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F53" s="36" t="s">
         <v>108</v>
       </c>
@@ -2801,7 +2975,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="34"/>
       <c r="C54" s="4"/>
       <c r="F54" t="s">
@@ -2811,7 +2985,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E55" s="7"/>
       <c r="F55" t="s">
         <v>23</v>
@@ -2834,27 +3008,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
@@ -2873,7 +3044,7 @@
       <c r="J1" s="29"/>
       <c r="K1" s="29"/>
     </row>
-    <row r="2" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>138</v>
       </c>
@@ -2892,7 +3063,7 @@
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="28" t="s">
         <v>32</v>
@@ -2909,7 +3080,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
     </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="26" t="s">
@@ -2924,7 +3095,7 @@
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="33"/>
@@ -2940,7 +3111,7 @@
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="E6" s="18" t="s">
@@ -2954,7 +3125,7 @@
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="E7" s="18"/>
@@ -2968,7 +3139,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="E8" s="18"/>
@@ -2984,7 +3155,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="E9" s="18"/>
@@ -3000,7 +3171,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -3017,7 +3188,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -3027,7 +3198,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -3041,7 +3212,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -3055,7 +3226,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -3070,13 +3241,13 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="22" t="s">
@@ -3088,7 +3259,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3103,7 +3274,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="18"/>
@@ -3118,7 +3289,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3133,7 +3304,7 @@
       <c r="J19" s="21"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="F20" s="18" t="s">
@@ -3146,7 +3317,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="E21" s="21"/>
@@ -3161,7 +3332,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="F22" s="18" t="s">
@@ -3174,7 +3345,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>34</v>
       </c>
@@ -3183,7 +3354,7 @@
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="C24" s="6" t="s">
         <v>26</v>
@@ -3193,7 +3364,7 @@
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="C25" s="34"/>
       <c r="E25" t="s">
@@ -3209,7 +3380,7 @@
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="C26" s="6" t="s">
         <v>7</v>
@@ -3219,7 +3390,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="C27" s="34"/>
       <c r="E27" s="4" t="s">
@@ -3230,7 +3401,7 @@
       </c>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="E28" s="4"/>
       <c r="F28" s="32" t="s">
@@ -3240,7 +3411,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29" s="34"/>
       <c r="C29" s="4"/>
@@ -3252,7 +3423,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="E30" s="7"/>
       <c r="F30" t="s">
@@ -3262,7 +3433,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>35</v>
       </c>
@@ -3272,7 +3443,7 @@
       <c r="D31" s="11"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="C32" s="6" t="s">
         <v>26</v>
@@ -3282,7 +3453,7 @@
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="E33" s="18" t="s">
         <v>97</v>
@@ -3291,48 +3462,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="E34" s="4"/>
       <c r="F34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="E35" s="4"/>
       <c r="F35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="E36" s="4"/>
       <c r="F36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="E37" s="4"/>
       <c r="F37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="D38" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="E39" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="E40" s="18" t="s">
         <v>101</v>
@@ -3341,21 +3512,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="E41" s="4"/>
       <c r="F41" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="E42" s="4"/>
       <c r="F42" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="C43" s="6" t="s">
         <v>7</v>
@@ -3365,7 +3536,7 @@
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="C44" s="34"/>
       <c r="E44" s="4" t="s">
@@ -3376,7 +3547,7 @@
       </c>
       <c r="G44" s="32"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="E45" s="4"/>
       <c r="F45" s="32" t="s">
@@ -3386,7 +3557,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46" s="34"/>
       <c r="C46" s="4"/>
@@ -3398,7 +3569,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="E47" s="7"/>
       <c r="F47" t="s">
@@ -3419,28 +3590,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" customWidth="1"/>
-    <col min="4" max="4" width="25.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -3453,7 +3621,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:8" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>140</v>
       </c>
@@ -3466,7 +3634,7 @@
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="10" t="s">
         <v>32</v>
@@ -3477,7 +3645,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
@@ -3485,7 +3653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="4" t="s">
@@ -3495,7 +3663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E6" s="4" t="s">
         <v>117</v>
       </c>
@@ -3505,7 +3673,7 @@
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>0</v>
       </c>
@@ -3513,7 +3681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>1</v>
       </c>
@@ -3524,7 +3692,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>2</v>
       </c>
@@ -3535,7 +3703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>98</v>
       </c>
@@ -3546,17 +3714,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13" s="4" t="s">
         <v>119</v>
       </c>
@@ -3565,7 +3733,7 @@
       </c>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
         <v>121</v>
       </c>
@@ -3573,7 +3741,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>123</v>
       </c>
@@ -3584,12 +3752,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E17" s="4" t="s">
         <v>126</v>
       </c>
@@ -3599,7 +3767,7 @@
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>128</v>
       </c>
@@ -3610,7 +3778,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>131</v>
       </c>
@@ -3618,7 +3786,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>133</v>
       </c>
@@ -3629,7 +3797,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
         <v>7</v>
       </c>
@@ -3637,7 +3805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E22" s="4" t="s">
         <v>143</v>
       </c>
@@ -3647,7 +3815,7 @@
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>9</v>
       </c>
@@ -3658,7 +3826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>46</v>
       </c>
@@ -3669,7 +3837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="4" t="s">
         <v>144</v>
       </c>
@@ -3677,7 +3845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
         <v>9</v>
       </c>
@@ -3688,7 +3856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
         <v>46</v>
       </c>
@@ -3699,7 +3867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D28" s="6" t="s">
         <v>31</v>
       </c>
@@ -3712,7 +3880,7 @@
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
         <v>9</v>
       </c>
@@ -3723,7 +3891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>12</v>
       </c>
@@ -3734,10 +3902,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -3746,7 +3914,7 @@
       </c>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C33" s="6" t="s">
         <v>26</v>
       </c>
@@ -3754,7 +3922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C34" s="34"/>
       <c r="E34" t="s">
         <v>38</v>
@@ -3769,7 +3937,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C35" s="6" t="s">
         <v>7</v>
       </c>
@@ -3778,7 +3946,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C36" s="34"/>
       <c r="E36" s="4" t="s">
         <v>143</v>
@@ -3787,19 +3955,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="34"/>
       <c r="C38" s="4"/>
       <c r="F38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E39" s="4" t="s">
         <v>144</v>
       </c>
@@ -3807,17 +3975,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D42" s="6" t="s">
         <v>31</v>
       </c>
@@ -3828,17 +3996,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>35</v>
       </c>
@@ -3848,7 +4016,7 @@
       <c r="D45" s="11"/>
       <c r="E45" s="12"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C46" s="6" t="s">
         <v>26</v>
       </c>
@@ -3856,7 +4024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E47" s="4" t="s">
         <v>117</v>
       </c>
@@ -3864,37 +4032,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F48" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F50" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F51" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D52" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E53" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E54" s="4" t="s">
         <v>119</v>
       </c>
@@ -3902,22 +4070,22 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F55" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E57" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E58" s="4" t="s">
         <v>126</v>
       </c>
@@ -3925,22 +4093,22 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F59" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F60" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C62" s="6" t="s">
         <v>7</v>
       </c>
@@ -3949,7 +4117,7 @@
       </c>
       <c r="E62"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C63" s="34"/>
       <c r="E63" s="4" t="s">
         <v>143</v>
@@ -3958,18 +4126,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F64" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" s="4"/>
       <c r="F65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E66" s="4" t="s">
         <v>144</v>
       </c>
@@ -3977,17 +4145,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F68" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D69" s="6" t="s">
         <v>31</v>
       </c>
@@ -3998,12 +4166,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F71" t="s">
         <v>12</v>
       </c>
@@ -4023,27 +4191,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H37"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -4059,7 +4227,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>149</v>
       </c>
@@ -4075,7 +4243,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="10" t="s">
         <v>32</v>
@@ -4089,7 +4257,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
@@ -4098,7 +4266,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="4" t="s">
@@ -4108,7 +4276,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E6" s="4" t="s">
         <v>91</v>
       </c>
@@ -4118,7 +4286,7 @@
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E7" s="4"/>
       <c r="F7" t="s">
         <v>0</v>
@@ -4127,7 +4295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E8" s="4"/>
       <c r="F8" t="s">
         <v>1</v>
@@ -4139,7 +4307,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E9" s="4"/>
       <c r="F9" t="s">
         <v>2</v>
@@ -4151,18 +4319,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
         <v>93</v>
       </c>
@@ -4172,7 +4340,7 @@
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13" s="4"/>
       <c r="F13" s="20" t="s">
         <v>74</v>
@@ -4182,7 +4350,7 @@
       </c>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
@@ -4191,7 +4359,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E15" s="4" t="s">
         <v>76</v>
       </c>
@@ -4201,7 +4369,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E16" s="4"/>
       <c r="F16" s="17" t="s">
         <v>78</v>
@@ -4209,7 +4377,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4219,7 +4387,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
         <v>34</v>
@@ -4233,7 +4401,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C19" s="6" t="s">
         <v>26</v>
       </c>
@@ -4242,7 +4410,7 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C20" s="14"/>
       <c r="E20" t="s">
         <v>38</v>
@@ -4254,7 +4422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
         <v>7</v>
       </c>
@@ -4262,7 +4430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C22" s="14"/>
       <c r="E22" s="4" t="s">
         <v>76</v>
@@ -4271,118 +4439,171 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="14"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="14"/>
       <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="14"/>
+      <c r="E25" s="4"/>
+      <c r="F25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="14"/>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>8</v>
+      <c r="F26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="14"/>
+      <c r="E27" s="4"/>
+      <c r="F27" t="s">
+        <v>170</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E28" s="4"/>
       <c r="F28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E29" s="4"/>
       <c r="F29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E35" s="4"/>
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E36" s="4"/>
+      <c r="F36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E30" s="4"/>
-      <c r="F30" t="s">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E37" s="4"/>
+      <c r="F37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D31" s="6" t="s">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D38" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E32" s="4" t="s">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E39" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E33" s="4" t="s">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E40" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F40" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E34" s="4"/>
-      <c r="F34" s="20" t="s">
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E41" s="4"/>
+      <c r="F41" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G41" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H34" s="20"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C35" s="6" t="s">
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C36" s="14"/>
-      <c r="E36" s="4" t="s">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="14"/>
+      <c r="E43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F43" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E37" s="4"/>
-      <c r="F37" s="17" t="s">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E44" s="4"/>
+      <c r="F44" s="17" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4391,7 +4612,7 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F40:H40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/신제품 대응 유사제품/Readme.xlsx
+++ b/신제품 대응 유사제품/Readme.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2319B07-E41D-4F52-984C-97B22A03E2F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123C591E-0661-4D73-9703-374D35A4B6F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="185">
   <si>
     <t>col_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,6 +797,26 @@
   </si>
   <si>
     <t>AutoML/신경망(Neural_network)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선형분석을 통한 생산량 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성의 유사도 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선형분석을 통한 월평균 생산량 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유사제품 생산량 증감 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유사제품 월평균 생산량 증감 예측</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1324,7 +1344,7 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1365,6 +1385,9 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
@@ -1379,6 +1402,9 @@
       <c r="E4">
         <v>1.1000000000000001</v>
       </c>
+      <c r="F4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
@@ -1393,6 +1419,9 @@
       <c r="E5">
         <v>2</v>
       </c>
+      <c r="F5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
@@ -1407,6 +1436,9 @@
       <c r="E6">
         <v>2.1</v>
       </c>
+      <c r="F6" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
@@ -1421,6 +1453,9 @@
       <c r="E7">
         <v>3</v>
       </c>
+      <c r="F7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
@@ -1434,6 +1469,9 @@
       </c>
       <c r="E8">
         <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1447,7 +1485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -4311,7 +4349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
